--- a/biology/Botanique/Charles_du_Trieu_de_Terdonck/Charles_du_Trieu_de_Terdonck.xlsx
+++ b/biology/Botanique/Charles_du_Trieu_de_Terdonck/Charles_du_Trieu_de_Terdonck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Charles du Trieu de Terdonck (Malines 2 septembre 1790 - 15 janvier 1861) est un savant horticulteur et sénateur belge.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Charles Maximilien du Trieu et d'Anne de Meester, il épousa en 1811 Barbe Pierets de Croonenburgh, fille de Pierre-André, chevalier (de l'empire), médecin et maire de Malines[1]. Il est notamment le beau-père de François de Cannart d'Hamale et du chevalier Emile de Knyff, ainsi que le grand-père d'Emmanuel Neeffs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Charles Maximilien du Trieu et d'Anne de Meester, il épousa en 1811 Barbe Pierets de Croonenburgh, fille de Pierre-André, chevalier (de l'empire), médecin et maire de Malines. Il est notamment le beau-père de François de Cannart d'Hamale et du chevalier Emile de Knyff, ainsi que le grand-père d'Emmanuel Neeffs.
 Il est le cofondateur de la Société royale d'horticulture et d'agriculture de Malines en 1837.
 Une huile très colorée sur panneau le montre, jeune homme, encombré d'une palette et de nombreux pinceaux.
 La vente de son importante bibliothèque composée de manuscrits et de livres eut lieu à Malines en 1862.
@@ -545,7 +559,9 @@
           <t>Mandats et fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourgmestre de Blaasveld (1816-1821)
 Bourgmestre de Heffen (1818-1821)
@@ -585,7 +601,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Un mot sur la proposition de frapper d'un droit de sortie... nos lins », Malines, 1843.
 « Dissertation sur les meilleurs moyens de fertiliser les landes de la Campine et des Ardennes, sous le triple point de vue de la création de forêts, de prairies et de terres arables » (ouvrage couronné par l'Académie des Sciences), Bruxelles, 1847.
